--- a/Excel Data.xlsx
+++ b/Excel Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Datatech\Datatech2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\DataTechTyache\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167DCC41-1078-468E-87D9-4126C5AE2FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695C13C0-3B3C-45D5-84C9-6D464279E11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="99">
   <si>
     <t>ProductCode</t>
   </si>
@@ -79,13 +79,256 @@
   </si>
   <si>
     <t>SLR0101</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 6</t>
+  </si>
+  <si>
+    <t>LAN0010201</t>
+  </si>
+  <si>
+    <t>SLR0102</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 7</t>
+  </si>
+  <si>
+    <t>LAN0010202</t>
+  </si>
+  <si>
+    <t>SLR0103</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 8</t>
+  </si>
+  <si>
+    <t>LAN0010203</t>
+  </si>
+  <si>
+    <t>SLR0104</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 9</t>
+  </si>
+  <si>
+    <t>LAN0010204</t>
+  </si>
+  <si>
+    <t>SLR0105</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 10</t>
+  </si>
+  <si>
+    <t>LAN0010205</t>
+  </si>
+  <si>
+    <t>SLR0106</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 11</t>
+  </si>
+  <si>
+    <t>LAN0010206</t>
+  </si>
+  <si>
+    <t>SLR0107</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 12</t>
+  </si>
+  <si>
+    <t>LAN0010207</t>
+  </si>
+  <si>
+    <t>SLR0108</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 13</t>
+  </si>
+  <si>
+    <t>LAN0010208</t>
+  </si>
+  <si>
+    <t>SLR0109</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 14</t>
+  </si>
+  <si>
+    <t>LAN0010209</t>
+  </si>
+  <si>
+    <t>SLR0110</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 15</t>
+  </si>
+  <si>
+    <t>LAN0010210</t>
+  </si>
+  <si>
+    <t>SLR0111</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 16</t>
+  </si>
+  <si>
+    <t>LAN0010211</t>
+  </si>
+  <si>
+    <t>SLR0112</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 17</t>
+  </si>
+  <si>
+    <t>LAN0010212</t>
+  </si>
+  <si>
+    <t>SLR0113</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 18</t>
+  </si>
+  <si>
+    <t>LAN0010213</t>
+  </si>
+  <si>
+    <t>SLR0114</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 19</t>
+  </si>
+  <si>
+    <t>LAN0010214</t>
+  </si>
+  <si>
+    <t>SLR0115</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 20</t>
+  </si>
+  <si>
+    <t>LAN0010215</t>
+  </si>
+  <si>
+    <t>SLR0116</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 21</t>
+  </si>
+  <si>
+    <t>LAN0010216</t>
+  </si>
+  <si>
+    <t>SLR0117</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 22</t>
+  </si>
+  <si>
+    <t>LAN0010217</t>
+  </si>
+  <si>
+    <t>SLR0118</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 23</t>
+  </si>
+  <si>
+    <t>LAN0010218</t>
+  </si>
+  <si>
+    <t>SLR0119</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 24</t>
+  </si>
+  <si>
+    <t>LAN0010219</t>
+  </si>
+  <si>
+    <t>SLR0120</t>
+  </si>
+  <si>
+    <t>Olanzapine ch 25</t>
+  </si>
+  <si>
+    <t>LAN0010220</t>
+  </si>
+  <si>
+    <t>SLR0121</t>
+  </si>
+  <si>
+    <t>20-02-2024</t>
+  </si>
+  <si>
+    <t>20-02-2025</t>
+  </si>
+  <si>
+    <t>20-02-2026</t>
+  </si>
+  <si>
+    <t>20-02-2027</t>
+  </si>
+  <si>
+    <t>20-02-2028</t>
+  </si>
+  <si>
+    <t>20-02-2029</t>
+  </si>
+  <si>
+    <t>20-02-2030</t>
+  </si>
+  <si>
+    <t>20-02-2031</t>
+  </si>
+  <si>
+    <t>20-02-2032</t>
+  </si>
+  <si>
+    <t>20-02-2033</t>
+  </si>
+  <si>
+    <t>20-02-2034</t>
+  </si>
+  <si>
+    <t>20-02-2035</t>
+  </si>
+  <si>
+    <t>20-02-2036</t>
+  </si>
+  <si>
+    <t>20-02-2037</t>
+  </si>
+  <si>
+    <t>20-02-2038</t>
+  </si>
+  <si>
+    <t>20-02-2039</t>
+  </si>
+  <si>
+    <t>20-02-2040</t>
+  </si>
+  <si>
+    <t>20-02-2041</t>
+  </si>
+  <si>
+    <t>20-02-2042</t>
+  </si>
+  <si>
+    <t>20-02-2043</t>
+  </si>
+  <si>
+    <t>20-02-2044</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +360,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -495,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,8 +823,12 @@
       <c r="G2" s="2">
         <v>20</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2026</v>
+      </c>
       <c r="J2" s="2" t="s">
         <v>14</v>
       </c>
@@ -589,7 +842,828 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>124</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>20</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="4">
+        <v>2027</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>125</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2028</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>126</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2029</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>127</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2">
+        <v>20</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2030</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>128</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2">
+        <v>20</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2031</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>129</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>20</v>
+      </c>
+      <c r="G8" s="2">
+        <v>20</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2032</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>130</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2">
+        <v>20</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2033</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>131</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
+        <v>20</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2034</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>132</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="2">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>20</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2035</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>133</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="2">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2">
+        <v>20</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2036</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>134</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2">
+        <v>20</v>
+      </c>
+      <c r="F13" s="2">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2">
+        <v>20</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2037</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>135</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
+        <v>20</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" s="4">
+        <v>2038</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>136</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2">
+        <v>20</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2039</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>137</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="2">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2">
+        <v>20</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="4">
+        <v>2040</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>138</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="2">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2">
+        <v>20</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="4">
+        <v>2041</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>139</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="2">
+        <v>20</v>
+      </c>
+      <c r="F18" s="2">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2">
+        <v>20</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2042</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>140</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="2">
+        <v>20</v>
+      </c>
+      <c r="F19" s="2">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2">
+        <v>20</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2043</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>2</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>141</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
+      <c r="F20" s="2">
+        <v>20</v>
+      </c>
+      <c r="G20" s="2">
+        <v>20</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2044</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>2</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>142</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="2">
+        <v>20</v>
+      </c>
+      <c r="F21" s="2">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2">
+        <v>20</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2045</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>2</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>143</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2">
+        <v>20</v>
+      </c>
+      <c r="G22" s="2">
+        <v>20</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="4">
+        <v>2046</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>